--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rln1-Rxfp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rln1-Rxfp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9914139999999999</v>
+        <v>0.08104266666666667</v>
       </c>
       <c r="H2">
-        <v>2.974242</v>
+        <v>0.243128</v>
       </c>
       <c r="I2">
-        <v>0.5837683597777464</v>
+        <v>0.1109852216299026</v>
       </c>
       <c r="J2">
-        <v>0.5837683597777463</v>
+        <v>0.1109852216299026</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,22 +558,22 @@
         <v>0.07395</v>
       </c>
       <c r="O2">
-        <v>0.7287293797670431</v>
+        <v>0.7533925587839766</v>
       </c>
       <c r="P2">
-        <v>0.7287293797670431</v>
+        <v>0.7533925587839766</v>
       </c>
       <c r="Q2">
-        <v>0.0244383551</v>
+        <v>0.001997701733333333</v>
       </c>
       <c r="R2">
-        <v>0.2199451959</v>
+        <v>0.0179793156</v>
       </c>
       <c r="S2">
-        <v>0.4254091547484612</v>
+        <v>0.08361544011095903</v>
       </c>
       <c r="T2">
-        <v>0.4254091547484611</v>
+        <v>0.08361544011095905</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9914139999999999</v>
+        <v>0.08104266666666667</v>
       </c>
       <c r="H3">
-        <v>2.974242</v>
+        <v>0.243128</v>
       </c>
       <c r="I3">
-        <v>0.5837683597777464</v>
+        <v>0.1109852216299026</v>
       </c>
       <c r="J3">
-        <v>0.5837683597777463</v>
+        <v>0.1109852216299026</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -614,28 +614,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.009175999999999998</v>
+        <v>0.008068666666666667</v>
       </c>
       <c r="N3">
-        <v>0.027528</v>
+        <v>0.024206</v>
       </c>
       <c r="O3">
-        <v>0.2712706202329568</v>
+        <v>0.2466074412160235</v>
       </c>
       <c r="P3">
-        <v>0.2712706202329569</v>
+        <v>0.2466074412160235</v>
       </c>
       <c r="Q3">
-        <v>0.009097214863999998</v>
+        <v>0.0006539062631111111</v>
       </c>
       <c r="R3">
-        <v>0.08187493377599998</v>
+        <v>0.005885156368</v>
       </c>
       <c r="S3">
-        <v>0.1583592050292852</v>
+        <v>0.02736978151894353</v>
       </c>
       <c r="T3">
-        <v>0.1583592050292852</v>
+        <v>0.02736978151894353</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5478883333333333</v>
+        <v>0.5478883333333334</v>
       </c>
       <c r="H4">
         <v>1.643665</v>
       </c>
       <c r="I4">
-        <v>0.3226098014465836</v>
+        <v>0.7503147490635131</v>
       </c>
       <c r="J4">
-        <v>0.3226098014465835</v>
+        <v>0.7503147490635131</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>0.07395</v>
       </c>
       <c r="O4">
-        <v>0.7287293797670431</v>
+        <v>0.7533925587839766</v>
       </c>
       <c r="P4">
-        <v>0.7287293797670431</v>
+        <v>0.7533925587839766</v>
       </c>
       <c r="Q4">
         <v>0.01350544741666667</v>
@@ -694,10 +694,10 @@
         <v>0.12154902675</v>
       </c>
       <c r="S4">
-        <v>0.2350952405149378</v>
+        <v>0.5652815486903174</v>
       </c>
       <c r="T4">
-        <v>0.2350952405149377</v>
+        <v>0.5652815486903174</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5478883333333333</v>
+        <v>0.5478883333333334</v>
       </c>
       <c r="H5">
         <v>1.643665</v>
       </c>
       <c r="I5">
-        <v>0.3226098014465836</v>
+        <v>0.7503147490635131</v>
       </c>
       <c r="J5">
-        <v>0.3226098014465835</v>
+        <v>0.7503147490635131</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.009175999999999998</v>
+        <v>0.008068666666666667</v>
       </c>
       <c r="N5">
-        <v>0.027528</v>
+        <v>0.024206</v>
       </c>
       <c r="O5">
-        <v>0.2712706202329568</v>
+        <v>0.2466074412160235</v>
       </c>
       <c r="P5">
-        <v>0.2712706202329569</v>
+        <v>0.2466074412160235</v>
       </c>
       <c r="Q5">
-        <v>0.005027423346666665</v>
+        <v>0.004420728332222223</v>
       </c>
       <c r="R5">
-        <v>0.04524681011999999</v>
+        <v>0.03978655499</v>
       </c>
       <c r="S5">
-        <v>0.08751456093164578</v>
+        <v>0.1850332003731957</v>
       </c>
       <c r="T5">
-        <v>0.08751456093164578</v>
+        <v>0.1850332003731957</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.158998</v>
+        <v>0.1012803333333333</v>
       </c>
       <c r="H6">
-        <v>0.476994</v>
+        <v>0.303841</v>
       </c>
       <c r="I6">
-        <v>0.09362183877567004</v>
+        <v>0.1387000293065843</v>
       </c>
       <c r="J6">
-        <v>0.09362183877567003</v>
+        <v>0.1387000293065843</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +806,22 @@
         <v>0.07395</v>
       </c>
       <c r="O6">
-        <v>0.7287293797670431</v>
+        <v>0.7533925587839766</v>
       </c>
       <c r="P6">
-        <v>0.7287293797670431</v>
+        <v>0.7533925587839766</v>
       </c>
       <c r="Q6">
-        <v>0.0039193007</v>
+        <v>0.002496560216666667</v>
       </c>
       <c r="R6">
-        <v>0.03527370630000001</v>
+        <v>0.02246904195</v>
       </c>
       <c r="S6">
-        <v>0.06822498450364413</v>
+        <v>0.1044955699827001</v>
       </c>
       <c r="T6">
-        <v>0.06822498450364413</v>
+        <v>0.1044955699827001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.158998</v>
+        <v>0.1012803333333333</v>
       </c>
       <c r="H7">
-        <v>0.476994</v>
+        <v>0.303841</v>
       </c>
       <c r="I7">
-        <v>0.09362183877567004</v>
+        <v>0.1387000293065843</v>
       </c>
       <c r="J7">
-        <v>0.09362183877567003</v>
+        <v>0.1387000293065843</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +862,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.009175999999999998</v>
+        <v>0.008068666666666667</v>
       </c>
       <c r="N7">
-        <v>0.027528</v>
+        <v>0.024206</v>
       </c>
       <c r="O7">
-        <v>0.2712706202329568</v>
+        <v>0.2466074412160235</v>
       </c>
       <c r="P7">
-        <v>0.2712706202329569</v>
+        <v>0.2466074412160235</v>
       </c>
       <c r="Q7">
-        <v>0.001458965648</v>
+        <v>0.0008171972495555557</v>
       </c>
       <c r="R7">
-        <v>0.013130690832</v>
+        <v>0.007354775246</v>
       </c>
       <c r="S7">
-        <v>0.0253968542720259</v>
+        <v>0.03420445932388422</v>
       </c>
       <c r="T7">
-        <v>0.0253968542720259</v>
+        <v>0.03420445932388422</v>
       </c>
     </row>
   </sheetData>
